--- a/xlsx/牛津大学_intext.xlsx
+++ b/xlsx/牛津大学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1331">
   <si>
     <t>牛津大学</t>
   </si>
@@ -29,13 +29,13 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_牛津大学</t>
+    <t>政策_政策_美国_牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%99%A2%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>書院聯邦制</t>
+    <t>书院联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E7%9B%A3</t>
   </si>
   <si>
-    <t>校監</t>
+    <t>校监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%AE%9A%E5%BA%B7</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E6%98%93%E4%B8%9D%C2%B7%E7%90%86%E6%9F%A5%E5%BE%B7%E6%A3%AE</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%B8%82</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際研究型大學聯盟</t>
+    <t>国际研究型大学联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%A0%E5%A4%A7%E5%AD%B8%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>羅素大學集團</t>
+    <t>罗素大学集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8B%B1%E5%B8%83%E6%8B%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>科英布拉集團</t>
+    <t>科英布拉集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%A4%A7%E5%AD%A6%E8%81%94%E7%9B%9F</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E5%AD%B8%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲大學協會</t>
+    <t>欧洲大学协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/G5%E8%B6%85%E7%BA%A7%E7%B2%BE%E8%8B%B1%E5%A4%A7%E5%AD%A6</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%B3%E9%8A%9C</t>
   </si>
   <si>
-    <t>勳銜</t>
+    <t>勳衔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>英語世界</t>
+    <t>英语世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
@@ -203,43 +203,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴黎大學</t>
+    <t>巴黎大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%8A%8D</t>
   </si>
   <si>
-    <t>牛劍</t>
+    <t>牛剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學書院</t>
+    <t>牛津大学书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%AD%B8%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學學術學院</t>
+    <t>牛津大学学术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%80%AB%E7%99%BB%E7%8D%8E%E5%AD%B8%E9%87%91</t>
   </si>
   <si>
-    <t>克拉倫登獎學金</t>
+    <t>克拉伦登奖学金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%A5%96%E5%AD%A6%E9%87%91</t>
@@ -251,25 +251,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>牛津大學出版社</t>
+    <t>牛津大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>大學圖書館</t>
+    <t>大学图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾獎得主列表</t>
+    <t>各大学诺贝尔奖得主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%81%B5%E5%A5%96</t>
@@ -287,55 +287,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E4%B8%89%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>亨利三世 (英格蘭)</t>
+    <t>亨利三世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>蘇格蘭人</t>
+    <t>苏格兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%80%AB%E7%89%B9%E6%B2%B3</t>
   </si>
   <si>
-    <t>特倫特河</t>
+    <t>特伦特河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>英格蘭人</t>
+    <t>英格兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭人</t>
+    <t>爱尔兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>威爾斯人</t>
+    <t>威尔斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%85%E7%A7%81%E4%BA%BA%E5%AD%B8%E5%A0%82</t>
   </si>
   <si>
-    <t>永久私人學堂</t>
+    <t>永久私人学堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%98%8E%E6%9C%83</t>
   </si>
   <si>
-    <t>道明會</t>
+    <t>道明会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84%E6%9C%83</t>
   </si>
   <si>
-    <t>方濟各會</t>
+    <t>方济各会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B0%94%E9%BB%98%E7%BD%97%E4%BC%9A</t>
@@ -347,31 +347,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%AE%9A%E6%9C%83</t>
   </si>
   <si>
-    <t>奧斯定會</t>
+    <t>奥斯定会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%A4%A7%E5%AD%B8%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學大學書院</t>
+    <t>牛津大学大学书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%B2%9D%E5%88%A9%E5%A5%A7%E7%88%BE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學貝利奧爾書院</t>
+    <t>牛津大学贝利奥尔书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B3%95%E5%AE%98_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>大法官 (英國)</t>
+    <t>大法官 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%A2%A8%E9%A0%93%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學墨頓書院</t>
+    <t>牛津大学墨顿书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E9%83%A1</t>
@@ -389,25 +389,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%8E%AB%E5%BE%B7%E6%9E%97%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學莫德林書院</t>
+    <t>牛津大学莫德林书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A0%BC%E7%BD%97%E8%BE%9B</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖經神學</t>
+    <t>圣经神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Colet</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%99%A2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經院哲學</t>
+    <t>经院哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%87%8C%E5%A4%A7%E4%B8%BB%E6%95%99</t>
@@ -461,25 +461,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%8B%9E%E5%BE%B7</t>
   </si>
   <si>
-    <t>威廉·勞德</t>
+    <t>威廉·劳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BE%B7%E5%88%A9%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>博德利圖書館</t>
+    <t>博德利图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國教會</t>
+    <t>英国国教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cavalier</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E9%A1%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>圓顱黨</t>
+    <t>圆颅党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%BF%90%E5%8A%A8</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E7%B4%90%E6%9B%BC</t>
   </si>
   <si>
-    <t>約翰·亨利·紐曼</t>
+    <t>约翰·亨利·纽曼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Benjamin_Jowett</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E7%B9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>馬克斯·繆勒</t>
+    <t>马克斯·缪勒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/religious_dissent</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E7%8E%9B%E6%A0%BC%E4%B8%BD%E7%89%B9%E5%A4%AB%E4%BA%BA%E5%AD%A6%E5%A0%82</t>
@@ -551,37 +551,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%96%A9%E9%BB%98%E7%B6%AD%E7%88%BE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學薩默維爾書院</t>
+    <t>牛津大学萨默维尔书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E4%BC%91%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖休書院</t>
+    <t>牛津大学圣休书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%B8%8C%E7%88%BE%E9%81%94%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖希爾達書院</t>
+    <t>牛津大学圣希尔达书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%AE%89%E5%A6%AE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖安妮書院</t>
+    <t>牛津大学圣安妮书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%80%B6%E7%A9%8C%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學耶穌書院</t>
+    <t>牛津大学耶稣书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E7%93%A6%E5%BE%B7%E6%BC%A2%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學瓦德漢書院</t>
+    <t>牛津大学瓦德汉书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E8%B5%AB%E7%89%B9%E7%A6%8F%E5%BE%B7%E5%AD%A6%E9%99%A2</t>
@@ -593,31 +593,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%87%B1%E7%91%9F%E7%90%B3%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖凱瑟琳書院</t>
+    <t>牛津大学圣凯瑟琳书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%A4%8D%E7%89%A9%E5%9C%92</t>
   </si>
   <si>
-    <t>牛津大學植物園</t>
+    <t>牛津大学植物园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%B8%83%E9%9B%B7%E9%BD%8A%E8%AB%BE%E6%96%AF%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學布雷齊諾斯書院</t>
+    <t>牛津大学布雷齐诺斯书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%9E%97%E8%82%AF%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學林肯書院</t>
+    <t>牛津大学林肯书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%9F%83%E5%85%8B%E5%A1%9E%E7%89%B9%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學埃克塞特書院</t>
+    <t>牛津大学埃克塞特书院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/town_and_gown</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E7%B4%8D%E8%8F%B2%E7%88%BE%E5%BE%B7%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學納菲爾德書院</t>
+    <t>牛津大学纳菲尔德书院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oxford_University_Student_Union</t>
@@ -707,163 +707,163 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%90%AC%E9%9D%88%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學萬靈書院</t>
+    <t>牛津大学万灵书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%9F%BA%E7%9D%A3%E5%A0%82%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學基督堂書院</t>
+    <t>牛津大学基督堂书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%9F%BA%E7%9D%A3%E8%81%96%E9%AB%94%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學基督聖體書院</t>
+    <t>牛津大学基督圣体书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%A0%BC%E6%9E%97%E5%9D%A6%E6%99%AE%E9%A0%93%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學格林坦普頓書院</t>
+    <t>牛津大学格林坦普顿书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%93%88%E9%87%8C%E6%96%AF%C2%B7%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學哈里斯·曼徹斯特書院</t>
+    <t>牛津大学哈里斯·曼彻斯特书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%9F%BA%E5%B8%83%E7%88%BE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學基布爾書院</t>
+    <t>牛津大学基布尔书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%87%B1%E6%B4%9B%E6%A0%BC%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學凱洛格書院</t>
+    <t>牛津大学凯洛格书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%9D%8E%E7%B4%8D%E5%85%8B%E7%88%BE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學李納克爾書院</t>
+    <t>牛津大学李纳克尔书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%9B%BC%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學曼斯菲爾德書院</t>
+    <t>牛津大学曼斯菲尔德书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%96%B0%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學新書院</t>
+    <t>牛津大学新书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%A5%A7%E9%87%8C%E7%88%BE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學奧里爾書院</t>
+    <t>牛津大学奥里尔书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%BD%AD%E5%B8%83%E7%BE%85%E5%85%8B%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學彭布羅克書院</t>
+    <t>牛津大学彭布罗克书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E7%9A%87%E5%90%8E%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學皇后書院</t>
+    <t>牛津大学皇后书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖安東尼書院</t>
+    <t>牛津大学圣安东尼书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%8D%81%E5%AD%97%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖十字書院</t>
+    <t>牛津大学圣十字书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E8%89%BE%E5%BE%B7%E8%92%99%E5%AD%B8%E5%A0%82</t>
   </si>
   <si>
-    <t>牛津大學聖艾德蒙學堂</t>
+    <t>牛津大学圣艾德蒙学堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E7%B4%84%E7%BF%B0%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖約翰書院</t>
+    <t>牛津大学圣约翰书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%BD%BC%E5%BE%97%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖彼得書院</t>
+    <t>牛津大学圣彼得书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E4%B8%89%E4%B8%80%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學三一書院</t>
+    <t>牛津大学三一书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%B2%83%E5%BC%97%E6%A3%AE%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學沃弗森書院</t>
+    <t>牛津大学沃弗森书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E4%BC%8D%E6%96%AF%E7%89%B9%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學伍斯特書院</t>
+    <t>牛津大学伍斯特书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E9%BB%91%E8%A1%A3%E4%BF%AE%E5%A3%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學黑衣修士院</t>
+    <t>牛津大学黑衣修士院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%BA%B7%E5%B9%B3%E5%AD%B8%E5%A0%82</t>
   </si>
   <si>
-    <t>牛津大學康平學堂</t>
+    <t>牛津大学康平学堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%94%9D%E6%94%BF%E5%85%AC%E5%9C%92%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學攝政公園學院</t>
+    <t>牛津大学摄政公园学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E8%B2%9D%E7%B4%8D%E5%AD%B8%E5%A0%82</t>
   </si>
   <si>
-    <t>牛津大學聖貝納學堂</t>
+    <t>牛津大学圣贝纳学堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%81%96%E5%8F%B2%E8%92%82%E8%8A%AC%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學聖史蒂芬院</t>
+    <t>牛津大学圣史蒂芬院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%A8%81%E5%85%8B%E9%87%8C%E5%A4%AB%E5%AD%B8%E5%A0%82</t>
   </si>
   <si>
-    <t>牛津大學威克里夫學堂</t>
+    <t>牛津大学威克里夫学堂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oliver_Franks,_Baron_Franks</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E6%A8%93</t>
   </si>
   <si>
-    <t>羅德樓</t>
+    <t>罗德楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UCAS</t>
@@ -911,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%9C%9F</t>
   </si>
   <si>
-    <t>學期</t>
+    <t>学期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%BF%A6%E5%8B%92%E5%AD%B8%E6%9C%9F</t>
   </si>
   <si>
-    <t>米迦勒學期</t>
+    <t>米迦勒学期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E9%87%8C%E5%AD%A6%E6%9C%9F</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>大英圖書館</t>
+    <t>大英图书馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thomas_Bodley</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%BA%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>斯溫頓</t>
+    <t>斯温顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_Marston</t>
@@ -1001,37 +1001,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E8%8E%AB%E6%9E%97%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>阿什莫林博物館</t>
+    <t>阿什莫林博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%96%8B%E6%9C%97%E5%9F%BA%E7%BE%85</t>
   </si>
   <si>
-    <t>米開朗基羅</t>
+    <t>米开朗基罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E8%8A%AC%E5%A5%87</t>
   </si>
   <si>
-    <t>達芬奇</t>
+    <t>达芬奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%8D</t>
   </si>
   <si>
-    <t>特納</t>
+    <t>特纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E5%8A%A0%E7%B4%A2</t>
   </si>
   <si>
-    <t>畢加索</t>
+    <t>毕加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>牛津大學自然史博物館</t>
+    <t>牛津大学自然史博物馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parks_Road</t>
@@ -1043,19 +1043,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>動物學</t>
+    <t>动物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E8%9F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>昆蟲學</t>
+    <t>昆虫学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA</t>
   </si>
   <si>
-    <t>地質</t>
+    <t>地质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E7%8E%8B%E9%BE%99</t>
@@ -1067,25 +1067,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E9%BE%8D</t>
   </si>
   <si>
-    <t>三角龍</t>
+    <t>三角龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E6%B8%A1%E9%B3%A5</t>
   </si>
   <si>
-    <t>渡渡鳥</t>
+    <t>渡渡鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E6%B2%B3%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>皮特河博物館</t>
+    <t>皮特河博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Museum_of_the_History_of_Science,_Oxford</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Concise_Oxford_English_Dictionary</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%9C%8B%E5%AE%B6%E4%BA%BA%E7%89%A9%E5%82%B3%E8%A8%98%E5%A4%A7%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津國家人物傳記大辭典</t>
+    <t>牛津国家人物传记大辞典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Concise_Dictionary_of_National_Biography</t>
@@ -1139,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E5%AD%A6%E6%9C%AF%E6%8E%92%E5%90%8D</t>
@@ -1157,25 +1157,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>美國新聞與世界報導</t>
+    <t>美国新闻与世界报导</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E6%97%A5%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>星期日泰晤士報</t>
+    <t>星期日泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -1199,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%A1%93%E7%A6%AE%E6%9C%8D</t>
   </si>
   <si>
-    <t>學術禮服</t>
+    <t>学术礼服</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>跨性別</t>
+    <t>跨性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%89%91%E6%A1%A5%E8%B5%9B%E8%89%87%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
@@ -1259,25 +1259,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%A5%BF%E7%88%BE%C2%B7%E7%BE%85%E5%BE%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>塞西爾·羅德斯</t>
+    <t>塞西尔·罗德斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%92%99%C2%B7%E5%93%88%E9%9B%B7</t>
   </si>
   <si>
-    <t>愛德蒙·哈雷</t>
+    <t>爱德蒙·哈雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%BA%AB%C2%B7%E8%89%BE%E9%87%91%E6%A3%AE</t>
   </si>
   <si>
-    <t>羅溫·艾金森</t>
+    <t>罗温·艾金森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LinkedIn</t>
@@ -1295,19 +1295,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%8D%A1%E5%B0%BC</t>
   </si>
   <si>
-    <t>馬克·卡尼</t>
+    <t>马克·卡尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E7%BE%85</t>
   </si>
   <si>
-    <t>路易斯·卡羅</t>
+    <t>路易斯·卡罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%B4%8D%E6%A3%AE%C2%B7%E5%8F%B2%E5%A8%81%E5%A4%AB%E7%89%B9</t>
   </si>
   <si>
-    <t>強納森·史威夫特</t>
+    <t>强纳森·史威夫特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%C2%B7%E7%8E%8B%E5%B0%94%E5%BE%B7</t>
@@ -1319,25 +1319,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8B%92%E5%8D%A1%E9%9B%B7</t>
   </si>
   <si>
-    <t>約翰·勒卡雷</t>
+    <t>约翰·勒卡雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E6%B4%9B%E4%BC%8A%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>安德魯·洛伊·韋伯</t>
+    <t>安德鲁·洛伊·韦伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%C2%B7%E8%91%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>休·葛蘭</t>
+    <t>休·葛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%89%B9%C2%B7%E8%B2%9D%E7%90%B4%E8%96%A9</t>
   </si>
   <si>
-    <t>凱特·貝琴薩</t>
+    <t>凯特·贝琴萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E5%A1%9E%E8%8E%B1</t>
@@ -1349,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%8B%9E%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>湯瑪斯·愛德華·勞倫斯</t>
+    <t>汤玛斯·爱德华·劳伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E5%A5%A5%E6%A0%BC%E5%A8%81</t>
@@ -1367,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E9%9B%B7%E5%88%A9</t>
   </si>
   <si>
-    <t>沃爾特·雷利</t>
+    <t>沃尔特·雷利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -1379,31 +1379,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E7%8F%80%E7%89%B9%C2%B7%E6%A2%85%E9%90%B8</t>
   </si>
   <si>
-    <t>魯珀特·梅鐸</t>
+    <t>鲁珀特·梅铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%A4%A7%E5%AD%B8%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%BE%97%E7%8D%8E%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各大學諾貝爾得獎者列表</t>
+    <t>各大学诺贝尔得奖者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>納爾遜·曼德拉</t>
+    <t>纳尔逊·曼德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A0%BC%E8%90%8A%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>威廉·格萊斯頓</t>
+    <t>威廉·格莱斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E9%98%BF%E6%96%AF%E5%A5%8E%E6%96%AF</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E7%89%B9%C2%B7%E8%89%BE%E5%BE%B7%E7%A6%AE</t>
   </si>
   <si>
-    <t>克萊門特·艾德禮</t>
+    <t>克莱门特·艾德礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BD%97%E5%BE%B7%C2%B7%E9%BA%A6%E5%85%8B%E7%B1%B3%E4%BC%A6</t>
@@ -1433,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>哈羅德·威爾遜</t>
+    <t>哈罗德·威尔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E5%A4%AB%E4%BA%BA</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%90%86%E9%9B%85</t>
   </si>
   <si>
-    <t>貝理雅</t>
+    <t>贝理雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -1463,13 +1463,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>英國下議院</t>
+    <t>英国下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B0%8D%E9%BB%A8%E9%A0%98%E8%A2%96_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>反對黨領袖 (英國)</t>
+    <t>反对党领袖 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%AB%8B%E5%BD%AC</t>
@@ -1487,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>英國上議院</t>
+    <t>英国上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%8B%89%E5%BE%B7%E4%BA%94%E4%B8%96</t>
@@ -1505,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>澳大利亞總理</t>
+    <t>澳大利亚总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%88%88%E9%A1%BF</t>
@@ -1517,37 +1517,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E7%A7%91%E5%A7%86%C2%B7%E5%BC%97%E9%9B%B7%E6%BE%A4</t>
   </si>
   <si>
-    <t>馬爾科姆·弗雷澤</t>
+    <t>马尔科姆·弗雷泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E5%8B%83%C2%B7%E9%9C%8D%E5%85%8B</t>
   </si>
   <si>
-    <t>鮑勃·霍克</t>
+    <t>鲍勃·霍克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B0%BC%C2%B7%E8%89%BE%E5%8D%9A%E7%89%B9</t>
   </si>
   <si>
-    <t>東尼·艾博特</t>
+    <t>东尼·艾博特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%8F%AD%C2%B7%E7%B6%AD%E5%85%8B%E5%A4%9A</t>
   </si>
   <si>
-    <t>奧班·維克多</t>
+    <t>奥班·维克多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>加拿大總理</t>
+    <t>加拿大总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E7%89%B9%C2%B7%E7%9A%AE%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>萊斯特·皮爾遜</t>
+    <t>莱斯特·皮尔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%86%85%E7%9A%AE%E5%B0%94%C2%B7%E7%89%B9%E7%BA%B3</t>
@@ -1577,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>巴基斯坦總理</t>
+    <t>巴基斯坦总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E5%85%B0%E6%80%BB%E7%90%86</t>
@@ -1589,13 +1589,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E7%8F%AD%E9%81%94%E6%8B%89%E7%B4%8D%E5%85%8B</t>
   </si>
   <si>
-    <t>所羅門·班達拉納克</t>
+    <t>所罗门·班达拉纳克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Manley</t>
@@ -1625,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%93%A6%E7%BE%85%C2%B7%E7%83%8F%E9%87%8C%E9%9F%8B%C2%B7%E8%B2%9D%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>阿爾瓦羅·烏里韋·貝萊斯</t>
+    <t>阿尔瓦罗·乌里韦·贝莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD%E9%A6%96%E7%9B%B8</t>
@@ -1637,13 +1637,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8A%AB%E5%AF%A6%C2%B7%E5%A8%81%E5%B7%AE%E5%A5%87%E7%93%A6</t>
   </si>
   <si>
-    <t>阿披實·威差奇瓦</t>
+    <t>阿披实·威差奇瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
@@ -1655,13 +1655,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%AD%B8%E8%80%85</t>
   </si>
   <si>
-    <t>羅德學者</t>
+    <t>罗德学者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>津巴布韋共和國</t>
+    <t>津巴布韦共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arthur_Mutambara</t>
@@ -1673,25 +1673,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>博茨瓦納</t>
+    <t>博茨瓦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%96%AF%E5%9C%96%E6%96%AF%C2%B7%E8%8E%AB%E5%8A%A0%E5%9F%83</t>
   </si>
   <si>
-    <t>費斯圖斯·莫加埃</t>
+    <t>费斯图斯·莫加埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%92%8C%E5%B9%B3%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾和平獎</t>
+    <t>诺贝尔和平奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%82%E5%B1%B1%E7%B4%A0%E5%A7%AC</t>
@@ -1703,25 +1703,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A5%95%E4%BF%A1</t>
   </si>
   <si>
-    <t>衛奕信</t>
+    <t>卫奕信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%90%86%E6%B5%A9</t>
   </si>
   <si>
-    <t>麥理浩</t>
+    <t>麦理浩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%AF%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅富國</t>
+    <t>罗富国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%9D%E5%BE%B7%E5%82%91</t>
   </si>
   <si>
-    <t>郝德傑</t>
+    <t>郝德杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%87%E6%B3%B0</t>
@@ -1739,19 +1739,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%BC%94</t>
   </si>
   <si>
-    <t>德輔</t>
+    <t>德辅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%9B%B2</t>
   </si>
   <si>
-    <t>寶雲</t>
+    <t>宝云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>戴維斯</t>
+    <t>戴维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E7%9D%A3</t>
@@ -1763,25 +1763,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%C2%B7%E7%8E%8B%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧斯卡·王爾德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%8B%E5%8F%A4%E5%85%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>西洋古典學</t>
+    <t>西洋古典学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E9%8D%BE%E6%9B%B8</t>
   </si>
   <si>
-    <t>錢鍾書</t>
+    <t>钱锺书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%B5%B3</t>
   </si>
   <si>
-    <t>楊絳</t>
+    <t>杨绛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E5%B0%94%E6%96%AF</t>
@@ -1793,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%96%AF%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>蘇斯博士</t>
+    <t>苏斯博士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thomas_Middleton</t>
@@ -1805,19 +1802,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E7%B4%84%E7%BF%B0%E9%81%9C</t>
   </si>
   <si>
-    <t>塞繆爾·約翰遜</t>
+    <t>塞缪尔·约翰逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E5%B8%8C%E6%AC%BD%E6%96%AF</t>
   </si>
   <si>
-    <t>克里斯托弗·希欽斯</t>
+    <t>克里斯托弗·希钦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%A0%BC%E9%9B%B7%E5%A4%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>羅伯特·格雷夫斯</t>
+    <t>罗伯特·格雷夫斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%AB%E6%9E%97%C2%B7%E6%B2%83</t>
@@ -1841,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>王爾德</t>
+    <t>王尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C%C2%B7S%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF</t>
@@ -1853,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/J%C2%B7R%C2%B7R%C2%B7%E6%89%98%E7%88%BE%E9%87%91</t>
   </si>
   <si>
-    <t>J·R·R·托爾金</t>
+    <t>J·R·R·托尔金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E5%8E%84%E5%A7%86%C2%B7%E6%A0%BC%E6%9E%97</t>
@@ -1865,13 +1862,13 @@
     <t>https://zh.wikipedia.org/wiki/V%C2%B7S%C2%B7%E5%A5%88%E6%B3%A2%E7%88%BE</t>
   </si>
   <si>
-    <t>V·S·奈波爾</t>
+    <t>V·S·奈波尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E6%99%AE%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>菲利普·普爾曼</t>
+    <t>菲利普·普尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%B5%B7%E5%8B%92</t>
@@ -1883,13 +1880,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%85%8B%E6%8B%89%E5%A7%86%C2%B7%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>維克拉姆·塞斯</t>
+    <t>维克拉姆·塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%90%8A</t>
   </si>
   <si>
-    <t>雪萊</t>
+    <t>雪莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%A4%9A%E6%81%A9</t>
@@ -1907,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/W%C2%B7H%C2%B7%E5%A5%A7%E7%99%BB</t>
   </si>
   <si>
-    <t>W·H·奧登</t>
+    <t>W·H·奥登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T%C2%B7S%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
@@ -1925,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%82%E5%86%A0%E8%A9%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>桂冠詩人</t>
+    <t>桂冠诗人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thomas_Warton</t>
@@ -1991,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%B2%83%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>威廉·沃爾頓</t>
+    <t>威廉·沃尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E5%8A%B3%E5%9F%83%E5%BE%B7%C2%B7%E9%9F%A6%E4%BC%AF</t>
@@ -2021,25 +2018,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E4%BD%A9%E6%9E%97</t>
   </si>
   <si>
-    <t>邁克爾·佩林</t>
+    <t>迈克尔·佩林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%C2%B7%E7%93%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>特里·瓊斯</t>
+    <t>特里·琼斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E9%87%8C%E5%AE%89%C2%B7%E4%BA%A8%E5%85%8B%E7%88%BE%C2%B7%E9%A6%AE%C2%B7%E6%9D%9C%E8%83%BD%E6%96%AF%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>弗洛里安·亨克爾·馮·杜能斯馬克</t>
+    <t>弗洛里安·亨克尔·冯·杜能斯马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%C2%B7%E6%B4%9B%E5%8D%80</t>
   </si>
   <si>
-    <t>肯·洛區</t>
+    <t>肯·洛区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AF%9F%C2%B7%E5%AF%87%E8%92%82%E6%96%AF</t>
@@ -2051,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%E7%88%BE%C2%B7%E9%98%BF%E8%92%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>邁克爾·阿蒂亞</t>
+    <t>迈克尔·阿蒂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E5%A5%8E%E4%BC%A6</t>
@@ -2069,19 +2066,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%E8%8C%B2%E7%8D%8E</t>
   </si>
   <si>
-    <t>菲爾茲獎</t>
+    <t>菲尔兹奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%A6%AC%E5%A4%A7%E5%AE%9A%E7%90%86</t>
   </si>
   <si>
-    <t>費馬大定理</t>
+    <t>费马大定理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E6%87%B7%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>安德魯·懷爾斯</t>
+    <t>安德鲁·怀尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BA%93%E6%96%AF%C2%B7%E6%9D%9C%C2%B7%E7%B4%A2%E6%89%98%E4%BC%8A</t>
@@ -2093,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%C2%B7%E6%BD%98%E6%B4%9B%E6%96%AF</t>
   </si>
   <si>
-    <t>羅傑·潘洛斯</t>
+    <t>罗杰·潘洛斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mathematica</t>
@@ -2111,19 +2108,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E6%B2%83%E7%88%BE%E5%A4%AB%E5%8B%92%E5%A7%86</t>
   </si>
   <si>
-    <t>史蒂芬·沃爾夫勒姆</t>
+    <t>史蒂芬·沃尔夫勒姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E6%9F%8F%E5%85%A7%E8%8C%B2-%E6%9D%8E</t>
   </si>
   <si>
-    <t>提姆·柏內茲-李</t>
+    <t>提姆·柏内兹-李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%B3%BB%E5%9E%8B%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -2141,19 +2138,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B0%BC%C2%B7%E9%9C%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>東尼·霍爾</t>
+    <t>东尼·霍尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%8C%96%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾化學獎</t>
+    <t>诺贝尔化学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%89%A9%E7%90%86%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾物理學獎</t>
+    <t>诺贝尔物理学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%8C%BB%E5%AD%A6%E6%88%96%E7%94%9F%E7%90%86%E5%AD%A6%E5%A5%96</t>
@@ -2171,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%83%E6%A8%82%E7%B5%B2%C2%B7%E9%9C%8D%E5%A5%87%E9%87%91</t>
   </si>
   <si>
-    <t>桃樂絲·霍奇金</t>
+    <t>桃乐丝·霍奇金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B2%83%E5%85%8B</t>
@@ -2195,13 +2192,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%99%8E%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·虎克</t>
+    <t>罗伯特·虎克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E6%96%87%C2%B7%E5%93%88%E5%8B%83</t>
   </si>
   <si>
-    <t>愛德文·哈勃</t>
+    <t>爱德文·哈勃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E9%9C%8D%E9%87%91</t>
@@ -2213,13 +2210,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%B3%A2%E7%BE%A9%E8%80%B3</t>
   </si>
   <si>
-    <t>羅伯特·波義耳</t>
+    <t>罗伯特·波义耳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>相對論</t>
+    <t>相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AD%90</t>
@@ -2231,19 +2228,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%84%9B%E5%9B%A0%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>阿爾伯特·愛因斯坦</t>
+    <t>阿尔伯特·爱因斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>聖人</t>
+    <t>圣人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%9B%B2%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
   </si>
   <si>
-    <t>羅雲·威廉斯</t>
+    <t>罗云·威廉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
@@ -2255,13 +2252,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%A1%9B%E6%96%AF%E7%90%86</t>
   </si>
   <si>
-    <t>約翰·衛斯理</t>
+    <t>约翰·卫斯理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B5%AB%E9%82%81%E5%BA%95%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿赫邁底亞</t>
+    <t>阿赫迈底亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mirza_Nasir_Ahmad</t>
@@ -2291,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%90%89%E7%88%BE%C2%B7%E5%9F%B9%E6%A0%B9</t>
   </si>
   <si>
-    <t>羅吉爾·培根</t>
+    <t>罗吉尔·培根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8D%A1%E5%A7%86%E5%89%83%E5%88%80</t>
@@ -2315,7 +2312,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>湯瑪斯·霍布斯</t>
+    <t>汤玛斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -2327,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Concept_of_Mind</t>
@@ -2345,37 +2342,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E6%9C%B1%E7%88%BE%E6%96%AF%C2%B7%E8%89%BE%E8%80%B6%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾弗雷德·朱爾斯·艾耶爾</t>
+    <t>艾尔弗雷德·朱尔斯·艾耶尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%A0%BC%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>保羅·格萊斯</t>
+    <t>保罗·格莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E7%82%BA%E4%B8%80%E9%9A%BB%E8%9D%99%E8%9D%A0%E5%8F%AF%E8%83%BD%E6%98%AF%E4%BB%80%E9%BA%BC%E6%A8%A3%E5%AD%90</t>
   </si>
   <si>
-    <t>成為一隻蝙蝠可能是什麼樣子</t>
+    <t>成为一只蝙蝠可能是什么样子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%85%A7%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>湯瑪斯·內格爾</t>
+    <t>汤玛斯·内格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E6%88%BF%E9%96%93</t>
   </si>
   <si>
-    <t>中文房間</t>
+    <t>中文房间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E6%9D%B0%E6%96%AF%C2%B7%E5%B8%8C%E5%B0%94%E5%8B%92</t>
@@ -2387,13 +2384,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E5%B8%83%E8%90%8A%E5%BE%B7%E5%88%A9</t>
   </si>
   <si>
-    <t>比爾·布萊德利</t>
+    <t>比尔·布莱德利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E5%B7%A5%E5%BB%A0%E8%B6%B3%E7%90%83%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>兵工廠足球俱樂部</t>
+    <t>兵工厂足球俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%87%C2%B7%E5%8A%A0%E9%BD%90%E8%BF%AA%E6%96%AF</t>
@@ -2405,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A7%86%E8%98%AD%C2%B7%E7%BD%95</t>
   </si>
   <si>
-    <t>伊姆蘭·罕</t>
+    <t>伊姆兰·罕</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Matthew_Pinsent</t>
@@ -2441,13 +2438,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>劍橋大學出版社</t>
+    <t>剑桥大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Daily_Telegraph</t>
@@ -2471,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>泰晤士報</t>
+    <t>泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Times</t>
@@ -2489,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>環球郵報</t>
+    <t>环球邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Kingsley_Amis</t>
@@ -2513,9 +2510,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_Chancellors_of_the_University_of_Oxford</t>
   </si>
   <si>
@@ -2543,13 +2537,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學學院</t>
+    <t>牛津大学学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E6%96%B0%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>牛津大學新學院</t>
+    <t>牛津大学新学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E5%A4%A7%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -2561,13 +2555,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E4%BD%9B%E6%95%99%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>牛津大學佛教研究中心</t>
+    <t>牛津大学佛教研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%B8%8C%E4%BC%AF%E4%BE%86%E5%8F%8A%E7%8C%B6%E5%A4%AA%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>牛津大學希伯來及猶太研究中心</t>
+    <t>牛津大学希伯来及犹太研究中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oxford_Centre_for_Hindu_Studies</t>
@@ -2579,7 +2573,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>牛津大學伊斯蘭研究中心</t>
+    <t>牛津大学伊斯兰研究中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oxford_University_Australian_Rules_Football_Club</t>
@@ -2687,7 +2681,7 @@
     <t>https://zh.wikipedia.org/wiki/BPP%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>BPP大學</t>
+    <t>BPP大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8B%B1%E5%90%89%E5%88%A9%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -2699,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%87%8C%E5%A5%87%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾里奇藝術大學</t>
+    <t>诺里奇艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
@@ -2717,31 +2711,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%BC%94%E8%AC%9B%E5%92%8C%E6%88%B2%E5%8A%87%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中央演講和戲劇學院</t>
+    <t>中央演讲和戏剧学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%99%B6%E5%BE%B7%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科陶德藝術學院</t>
+    <t>科陶德艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E9%87%91%E5%8C%A0%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學金匠學院</t>
+    <t>伦敦大学金匠学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%BC%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>凱弗學院</t>
+    <t>凯弗学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C%E7%99%A5%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>癌癥研究院</t>
+    <t>癌症研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%9B%BD%E7%8E%8B%E5%AD%A6%E9%99%A2</t>
@@ -2759,13 +2753,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E6%94%BF%E6%B2%BB%E7%B6%93%E6%BF%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦政治經濟學院</t>
+    <t>伦敦政治经济学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E8%A1%9B%E7%94%9F%E8%88%87%E7%86%B1%E5%B8%B6%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦衛生與熱帶醫學院</t>
+    <t>伦敦卫生与热带医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E7%8E%8B%E5%90%8E%E5%AD%A6%E9%99%A2</t>
@@ -2777,31 +2771,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>英國皇家音樂學院</t>
+    <t>英国皇家音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%B3%80%E6%B4%9B%E5%94%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>皇家賀洛唯學院</t>
+    <t>皇家贺洛唯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E7%8D%B8%E9%86%AB%E5%AD%B8%E9%99%A2_(%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8)</t>
   </si>
   <si>
-    <t>皇家獸醫學院 (倫敦大學)</t>
+    <t>皇家兽医学院 (伦敦大学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E8%81%96%E5%96%AC%E6%B2%BB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學聖喬治學院</t>
+    <t>伦敦大学圣乔治学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E4%BA%9E%E9%9D%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學亞非學院</t>
+    <t>伦敦大学亚非学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -2813,31 +2807,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8%E5%9F%8E%E5%B8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦大學城市學院</t>
+    <t>伦敦大学城市学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%A7%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>布魯內爾大學</t>
+    <t>布鲁内尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%80%AB%E6%95%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東倫敦大學</t>
+    <t>东伦敦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%A8%81%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格林威治大學</t>
+    <t>格林威治大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%A3%AB%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>金士頓大學</t>
+    <t>金士顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%B8%9D%E5%9B%BD%E5%AD%A6%E9%99%A2</t>
@@ -2849,19 +2843,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E9%83%BD%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦都會大學</t>
+    <t>伦敦都会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%8D%97%E5%B2%B8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦南岸大學</t>
+    <t>伦敦南岸大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BE%B7%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密德薩斯大學</t>
+    <t>密德萨斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%89%BA%E6%9C%AF%E5%AD%A6%E9%99%A2</t>
@@ -2879,19 +2873,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%BC%A2%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅漢普頓大學</t>
+    <t>罗汉普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫敦藝術大學</t>
+    <t>伦敦艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E6%95%8F%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威斯敏斯特大學</t>
+    <t>威斯敏斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
@@ -2903,7 +2897,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿斯頓大學</t>
+    <t>阿斯顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%A4%A7%E5%AD%A6</t>
@@ -2915,13 +2909,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伯明翰城市大學</t>
+    <t>伯明翰城市大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%AF%E6%B3%B0%E7%89%B9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格羅斯泰特主教大學</t>
+    <t>格罗斯泰特主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E6%96%87%E5%9E%82%E5%A4%A7%E5%AD%A6</t>
@@ -2933,7 +2927,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%92%99%E7%A6%8F%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德蒙福特大學</t>
+    <t>德蒙福特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%AF%94%E5%A4%A7%E5%AD%A6</t>
@@ -2945,31 +2939,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%8F%80%E4%BA%9E%E7%95%B6%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈珀亞當斯大學</t>
+    <t>哈珀亚当斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%88%BE%E5%A4%A7%E5%AD%B8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>基爾大學 (英國)</t>
+    <t>基尔大学 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊斯特大學</t>
+    <t>莱斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B5%AE%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅浮堡大學</t>
+    <t>罗浮堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%9B%BC%E5%A4%A7%E5%AD%B8_(%E4%BC%AF%E6%98%8E%E7%BF%B0)</t>
   </si>
   <si>
-    <t>紐曼大學 (伯明翰)</t>
+    <t>纽曼大学 (伯明翰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%89%E6%99%AE%E9%A1%BF%E5%A4%A7%E5%AD%A6</t>
@@ -2981,19 +2975,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%B1%80%E7%BD%95%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾汀罕大學</t>
+    <t>诺汀罕大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%B8%81%E6%BC%A2%E7%89%B9%E5%80%AB%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾丁漢特倫特大學</t>
+    <t>诺丁汉特伦特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E9%83%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹福郡大學</t>
+    <t>史丹福郡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%A8%81%E5%A4%A7%E5%AD%A6</t>
@@ -3005,13 +2999,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E7%88%BE%E5%BC%97%E6%BC%A2%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伍爾弗漢普頓大學</t>
+    <t>伍尔弗汉普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%88%BE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>博爾頓大學</t>
+    <t>博尔顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E5%BE%B7%E7%A6%8F%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -3023,19 +3017,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>桑德蘭大學</t>
+    <t>桑德兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>切斯特大學</t>
+    <t>切斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%B8%83%E9%87%8C%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>坎布里亞大學</t>
+    <t>坎布里亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E4%BC%A6%E5%A4%A7%E5%AD%A6</t>
@@ -3047,7 +3041,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邊山大學</t>
+    <t>边山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -3059,7 +3053,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>赫爾大學</t>
+    <t>赫尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%8D%A1%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3077,7 +3071,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E8%8C%B2%E8%B2%9D%E5%85%8B%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>利茲貝克特大學</t>
+    <t>利兹贝克特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%B9%E4%B8%89%E4%B8%80%E5%A4%A7%E5%AD%A6</t>
@@ -3095,13 +3089,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%89%A9%E6%B5%A6%E5%B8%8C%E6%9C%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>利物浦希望大學</t>
+    <t>利物浦希望大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%89%A9%E6%B5%A6%E7%B4%84%E7%BF%B0%E6%91%A9%E7%88%BE%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>利物浦約翰摩爾斯大學</t>
+    <t>利物浦约翰摩尔斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BD%BB%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3113,7 +3107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E9%83%BD%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>曼徹斯特都會大學</t>
+    <t>曼彻斯特都会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%A1%E6%96%AF%E5%B0%94%E5%A4%A7%E5%AD%A6_(%E8%8B%B1%E5%9B%BD)</t>
@@ -3131,7 +3125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E7%A6%8F%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索爾福德大學</t>
+    <t>索尔福德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -3143,67 +3137,67 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%8F%B2%E7%88%BE%E5%93%88%E5%80%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雪菲爾哈倫大學</t>
+    <t>雪菲尔哈伦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%A1%91%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>諾桑比亞大學</t>
+    <t>诺桑比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%B3%BD%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>提賽德大學</t>
+    <t>提赛德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E5%A4%A7%E5%AD%B8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>約克大學 (英國)</t>
+    <t>约克大学 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E8%81%96%E7%B4%84%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約克聖約翰大學</t>
+    <t>约克圣约翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%81%A9%E8%8C%85%E6%96%AF%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伯恩茅斯藝術大學</t>
+    <t>伯恩茅斯艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴斯大學</t>
+    <t>巴斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E6%80%9D%E5%B7%B4%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>巴斯思巴大學</t>
+    <t>巴斯思巴大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%BE%B7%E7%A6%8F%E5%BE%B7%E9%83%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貝德福德郡大學</t>
+    <t>贝德福德郡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%81%A9%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伯恩茅斯大學</t>
+    <t>伯恩茅斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>布萊頓大學</t>
+    <t>布莱顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -3221,31 +3215,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%87%91%E6%BC%A2%E9%83%A1%E6%96%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>白金漢郡新大學</t>
+    <t>白金汉郡新大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%9B%B7%E5%9F%BA%E7%9D%A3%E6%95%99%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>坎特伯雷基督教會大學</t>
+    <t>坎特伯雷基督教会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%88%87%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奇切斯特大學</t>
+    <t>奇切斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%98%AD%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克蘭菲爾德大學</t>
+    <t>克兰菲尔德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E8%97%9D%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>創作藝術大學</t>
+    <t>创作艺术大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -3257,19 +3251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B8%8C%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>艾希特大學</t>
+    <t>艾希特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%88%BE%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>法爾茅斯大學</t>
+    <t>法尔茅斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%AF%E7%89%B9%E9%83%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格羅斯特郡大學</t>
+    <t>格罗斯特郡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3281,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%B8%83%E9%AD%AF%E5%85%8B%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津布魯克斯大學</t>
+    <t>牛津布鲁克斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -3293,7 +3287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E8%8C%A8%E8%8C%85%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>樸茨茅斯大學</t>
+    <t>朴茨茅斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81%E5%A4%A7%E5%AD%A6</t>
@@ -3305,7 +3299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E5%92%8C%E8%81%96%E7%B4%84%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖馬可和聖約翰大學</t>
+    <t>圣马可和圣约翰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
@@ -3317,13 +3311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E9%A0%93%E7%B4%A2%E5%80%AB%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南安普頓索倫特大學</t>
+    <t>南安普顿索伦特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>薩里大學</t>
+    <t>萨里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%A1%9E%E5%85%8B%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -3335,13 +3329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西英格蘭大學</t>
+    <t>西英格兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>溫徹斯特大學</t>
+    <t>温彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0%E5%A4%A7%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -3359,7 +3353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿爾斯特大學</t>
+    <t>阿尔斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E4%B8%81%E5%A4%A7%E5%AD%A6</t>
@@ -3371,7 +3365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%B3%B0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞伯泰大學</t>
+    <t>亚伯泰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E8%BF%AA%E5%A4%A7%E5%AD%A6</t>
@@ -3389,7 +3383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E7%B4%8D%E7%9A%AE%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡納皮爾大學</t>
+    <t>爱丁堡纳皮尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -3401,7 +3395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%8D%A1%E5%88%A9%E5%A4%9A%E5%B0%BC%E5%AE%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格拉斯哥卡利多尼安大學</t>
+    <t>格拉斯哥卡利多尼安大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%91%9E%E7%93%A6%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3413,13 +3407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E8%88%87%E7%BE%A4%E5%B3%B6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>高地與群島大學</t>
+    <t>高地与群岛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%E7%9A%87%E5%90%8E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>瑪格麗特皇后大學</t>
+    <t>玛格丽特皇后大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%E6%88%88%E7%99%BB%E5%A4%A7%E5%AD%A6</t>
@@ -3431,7 +3425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>蘇格蘭皇家音樂學院</t>
+    <t>苏格兰皇家音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E5%BE%B7%E9%B2%81%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -3449,13 +3443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%8B%89%E6%96%AF%E5%85%8B%E8%90%8A%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯特拉斯克萊德大學</t>
+    <t>斯特拉斯克莱德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%98%87%E6%A0%BC%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西蘇格蘭大學</t>
+    <t>西苏格兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%A3%AB%E5%A4%A7%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -3467,7 +3461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E9%87%8C%E6%96%AF%E7%89%B9%E5%A8%81%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿伯里斯特威斯大學</t>
+    <t>阿伯里斯特威斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%88%88%E5%A4%A7%E5%AD%A6</t>
@@ -3485,7 +3479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%AA%E5%A4%AB%E9%83%BD%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡迪夫都會大學</t>
+    <t>卡迪夫都会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%E6%B1%89%E5%A7%86%E6%A0%BC%E6%9E%97%E5%A4%9A%E5%A4%A7%E5%AD%A6</t>
@@ -3503,37 +3497,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB%E4%B8%89%E4%B8%80%E8%81%96%E5%A4%A7%E8%A1%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威爾士三一聖大衛大學</t>
+    <t>威尔士三一圣大卫大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西印度群島大學</t>
+    <t>西印度群岛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%A4%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖馬太大學</t>
+    <t>圣马太大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6%E5%A4%A7%E5%AD%B8%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>開曼群島大學學院</t>
+    <t>开曼群岛大学学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A9%B9%E5%A7%86%E6%96%AF%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖詹姆斯醫學院</t>
+    <t>圣詹姆斯医学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>直布羅陀大學</t>
+    <t>直布罗陀大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%85%AC%E5%BC%80%E5%A4%A7%E5%AD%A6</t>
@@ -3545,21 +3539,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A4%A7%E5%AD%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>英國大學列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>剑桥大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%B8%9D%E5%9C%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦帝國學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5</t>
   </si>
   <si>
@@ -3569,27 +3554,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5</t>
   </si>
   <si>
-    <t>剑桥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
   </si>
   <si>
-    <t>伦敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>伦敦政治经济学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%B4%A0%E5%A4%A7%E5%AD%A6%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>罗素大学集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%9F%A5%E7%90%86%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -3629,7 +3602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%93%8B%E9%9A%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雅蓋隆大學</t>
+    <t>雅盖隆大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C%E5%BA%B7%E6%99%AE%E9%A1%BF%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -3647,27 +3620,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E6%89%98%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>布里斯托大學</t>
+    <t>布里斯托大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格拉斯哥大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%9C%8B%E7%8E%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦國王學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E7%8E%9B%E4%B8%BD%E7%8E%8B%E5%90%8E%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -3677,9 +3641,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%80%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜倫大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%A1%E6%96%AF%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -3689,19 +3650,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南安普頓大學</t>
+    <t>南安普顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%A8%81%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>華威大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%B4%84%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>英國約克大學</t>
+    <t>英国约克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3737,9 +3695,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊頓大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%AF%AD%E5%A4%A9%E4%B8%BB%E6%95%99%E9%B2%81%E6%B1%B6%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
@@ -3797,7 +3752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%BC%97%E6%9C%97%E5%B2%91%E6%96%AF%E6%A0%BC%E6%8B%89%E8%8C%A8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡爾·弗朗岑斯格拉茨大學</t>
+    <t>卡尔·弗朗岑斯格拉茨大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%A4%A9%E4%B8%BB%E6%95%99%E9%B2%81%E6%B1%B6%E5%A4%A7%E5%AD%A6</t>
@@ -3839,7 +3794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BD%BC%E5%88%A9%E5%9F%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>蒙彼利埃大學</t>
+    <t>蒙彼利埃大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%93%A6%E6%8D%B7%E5%A4%A7%E5%AD%A6</t>
@@ -3887,13 +3842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>都柏林大學</t>
+    <t>都柏林大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%A4%9A%E7%93%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>帕多瓦大學</t>
+    <t>帕多瓦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BB%B4%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -3905,7 +3860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%80%B6%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>錫耶納大學</t>
+    <t>锡耶纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BD%97%E5%AE%81%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -3923,7 +3878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8B%B1%E5%B8%83%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科英布拉大學</t>
+    <t>科英布拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BD%BC%E5%BE%97%E5%A0%A1%E5%9B%BD%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -3959,25 +3914,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%99%AE%E8%96%A9%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>烏普薩拉大學</t>
+    <t>乌普萨拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%A6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>国际研究型大学联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澳大利亞國立大學</t>
+    <t>澳大利亚国立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
@@ -4019,7 +3971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4031,7 +3983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4043,7 +3995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4055,7 +4007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -10287,7 +10239,7 @@
         <v>376</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -10316,7 +10268,7 @@
         <v>376</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -10374,7 +10326,7 @@
         <v>380</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10403,7 +10355,7 @@
         <v>380</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -10432,7 +10384,7 @@
         <v>382</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -13329,7 +13281,7 @@
         <v>581</v>
       </c>
       <c r="F308" t="s">
-        <v>582</v>
+        <v>432</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13355,10 +13307,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>582</v>
+      </c>
+      <c r="F309" t="s">
         <v>583</v>
-      </c>
-      <c r="F309" t="s">
-        <v>584</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13384,10 +13336,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>584</v>
+      </c>
+      <c r="F310" t="s">
         <v>585</v>
-      </c>
-      <c r="F310" t="s">
-        <v>586</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13413,10 +13365,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>586</v>
+      </c>
+      <c r="F311" t="s">
         <v>587</v>
-      </c>
-      <c r="F311" t="s">
-        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13442,10 +13394,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>588</v>
+      </c>
+      <c r="F312" t="s">
         <v>589</v>
-      </c>
-      <c r="F312" t="s">
-        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13471,10 +13423,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>590</v>
+      </c>
+      <c r="F313" t="s">
         <v>591</v>
-      </c>
-      <c r="F313" t="s">
-        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13500,10 +13452,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>592</v>
+      </c>
+      <c r="F314" t="s">
         <v>593</v>
-      </c>
-      <c r="F314" t="s">
-        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13529,10 +13481,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>594</v>
+      </c>
+      <c r="F315" t="s">
         <v>595</v>
-      </c>
-      <c r="F315" t="s">
-        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13558,10 +13510,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>596</v>
+      </c>
+      <c r="F316" t="s">
         <v>597</v>
-      </c>
-      <c r="F316" t="s">
-        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13587,10 +13539,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>598</v>
+      </c>
+      <c r="F317" t="s">
         <v>599</v>
-      </c>
-      <c r="F317" t="s">
-        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13616,10 +13568,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>600</v>
+      </c>
+      <c r="F318" t="s">
         <v>601</v>
-      </c>
-      <c r="F318" t="s">
-        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13645,10 +13597,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>602</v>
+      </c>
+      <c r="F319" t="s">
         <v>603</v>
-      </c>
-      <c r="F319" t="s">
-        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13674,10 +13626,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>604</v>
+      </c>
+      <c r="F320" t="s">
         <v>605</v>
-      </c>
-      <c r="F320" t="s">
-        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13703,10 +13655,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>606</v>
+      </c>
+      <c r="F321" t="s">
         <v>607</v>
-      </c>
-      <c r="F321" t="s">
-        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -13732,10 +13684,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>608</v>
+      </c>
+      <c r="F322" t="s">
         <v>609</v>
-      </c>
-      <c r="F322" t="s">
-        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13761,10 +13713,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>610</v>
+      </c>
+      <c r="F323" t="s">
         <v>611</v>
-      </c>
-      <c r="F323" t="s">
-        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13790,10 +13742,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>612</v>
+      </c>
+      <c r="F324" t="s">
         <v>613</v>
-      </c>
-      <c r="F324" t="s">
-        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13819,10 +13771,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>614</v>
+      </c>
+      <c r="F325" t="s">
         <v>615</v>
-      </c>
-      <c r="F325" t="s">
-        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13848,10 +13800,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>616</v>
+      </c>
+      <c r="F326" t="s">
         <v>617</v>
-      </c>
-      <c r="F326" t="s">
-        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13877,10 +13829,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>618</v>
+      </c>
+      <c r="F327" t="s">
         <v>619</v>
-      </c>
-      <c r="F327" t="s">
-        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13906,10 +13858,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>620</v>
+      </c>
+      <c r="F328" t="s">
         <v>621</v>
-      </c>
-      <c r="F328" t="s">
-        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13935,10 +13887,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>622</v>
+      </c>
+      <c r="F329" t="s">
         <v>623</v>
-      </c>
-      <c r="F329" t="s">
-        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13964,10 +13916,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>624</v>
+      </c>
+      <c r="F330" t="s">
         <v>625</v>
-      </c>
-      <c r="F330" t="s">
-        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13993,10 +13945,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>626</v>
+      </c>
+      <c r="F331" t="s">
         <v>627</v>
-      </c>
-      <c r="F331" t="s">
-        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -14022,10 +13974,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>628</v>
+      </c>
+      <c r="F332" t="s">
         <v>629</v>
-      </c>
-      <c r="F332" t="s">
-        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -14051,10 +14003,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>630</v>
+      </c>
+      <c r="F333" t="s">
         <v>631</v>
-      </c>
-      <c r="F333" t="s">
-        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -14080,10 +14032,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>632</v>
+      </c>
+      <c r="F334" t="s">
         <v>633</v>
-      </c>
-      <c r="F334" t="s">
-        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -14109,10 +14061,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>634</v>
+      </c>
+      <c r="F335" t="s">
         <v>635</v>
-      </c>
-      <c r="F335" t="s">
-        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -14138,10 +14090,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>636</v>
+      </c>
+      <c r="F336" t="s">
         <v>637</v>
-      </c>
-      <c r="F336" t="s">
-        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -14167,10 +14119,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>638</v>
+      </c>
+      <c r="F337" t="s">
         <v>639</v>
-      </c>
-      <c r="F337" t="s">
-        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -14196,10 +14148,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>640</v>
+      </c>
+      <c r="F338" t="s">
         <v>641</v>
-      </c>
-      <c r="F338" t="s">
-        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -14225,10 +14177,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>642</v>
+      </c>
+      <c r="F339" t="s">
         <v>643</v>
-      </c>
-      <c r="F339" t="s">
-        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14254,10 +14206,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>644</v>
+      </c>
+      <c r="F340" t="s">
         <v>645</v>
-      </c>
-      <c r="F340" t="s">
-        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -14283,10 +14235,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>646</v>
+      </c>
+      <c r="F341" t="s">
         <v>647</v>
-      </c>
-      <c r="F341" t="s">
-        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14312,10 +14264,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>648</v>
+      </c>
+      <c r="F342" t="s">
         <v>649</v>
-      </c>
-      <c r="F342" t="s">
-        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -14341,10 +14293,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>650</v>
+      </c>
+      <c r="F343" t="s">
         <v>651</v>
-      </c>
-      <c r="F343" t="s">
-        <v>652</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14370,10 +14322,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>652</v>
+      </c>
+      <c r="F344" t="s">
         <v>653</v>
-      </c>
-      <c r="F344" t="s">
-        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14399,10 +14351,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>654</v>
+      </c>
+      <c r="F345" t="s">
         <v>655</v>
-      </c>
-      <c r="F345" t="s">
-        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14428,10 +14380,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>656</v>
+      </c>
+      <c r="F346" t="s">
         <v>657</v>
-      </c>
-      <c r="F346" t="s">
-        <v>658</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14457,10 +14409,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>658</v>
+      </c>
+      <c r="F347" t="s">
         <v>659</v>
-      </c>
-      <c r="F347" t="s">
-        <v>660</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14486,10 +14438,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>660</v>
+      </c>
+      <c r="F348" t="s">
         <v>661</v>
-      </c>
-      <c r="F348" t="s">
-        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14515,10 +14467,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>662</v>
+      </c>
+      <c r="F349" t="s">
         <v>663</v>
-      </c>
-      <c r="F349" t="s">
-        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14544,10 +14496,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>664</v>
+      </c>
+      <c r="F350" t="s">
         <v>665</v>
-      </c>
-      <c r="F350" t="s">
-        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14573,10 +14525,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>666</v>
+      </c>
+      <c r="F351" t="s">
         <v>667</v>
-      </c>
-      <c r="F351" t="s">
-        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14602,10 +14554,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>668</v>
+      </c>
+      <c r="F352" t="s">
         <v>669</v>
-      </c>
-      <c r="F352" t="s">
-        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14631,10 +14583,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>670</v>
+      </c>
+      <c r="F353" t="s">
         <v>671</v>
-      </c>
-      <c r="F353" t="s">
-        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14660,10 +14612,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>672</v>
+      </c>
+      <c r="F354" t="s">
         <v>673</v>
-      </c>
-      <c r="F354" t="s">
-        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14689,10 +14641,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>674</v>
+      </c>
+      <c r="F355" t="s">
         <v>675</v>
-      </c>
-      <c r="F355" t="s">
-        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14718,10 +14670,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>676</v>
+      </c>
+      <c r="F356" t="s">
         <v>677</v>
-      </c>
-      <c r="F356" t="s">
-        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14747,10 +14699,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>678</v>
+      </c>
+      <c r="F357" t="s">
         <v>679</v>
-      </c>
-      <c r="F357" t="s">
-        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14776,10 +14728,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>680</v>
+      </c>
+      <c r="F358" t="s">
         <v>681</v>
-      </c>
-      <c r="F358" t="s">
-        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14805,10 +14757,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>682</v>
+      </c>
+      <c r="F359" t="s">
         <v>683</v>
-      </c>
-      <c r="F359" t="s">
-        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14834,10 +14786,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>684</v>
+      </c>
+      <c r="F360" t="s">
         <v>685</v>
-      </c>
-      <c r="F360" t="s">
-        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14863,10 +14815,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>686</v>
+      </c>
+      <c r="F361" t="s">
         <v>687</v>
-      </c>
-      <c r="F361" t="s">
-        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14892,10 +14844,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>688</v>
+      </c>
+      <c r="F362" t="s">
         <v>689</v>
-      </c>
-      <c r="F362" t="s">
-        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14921,10 +14873,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>690</v>
+      </c>
+      <c r="F363" t="s">
         <v>691</v>
-      </c>
-      <c r="F363" t="s">
-        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14950,10 +14902,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>692</v>
+      </c>
+      <c r="F364" t="s">
         <v>693</v>
-      </c>
-      <c r="F364" t="s">
-        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14979,10 +14931,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>694</v>
+      </c>
+      <c r="F365" t="s">
         <v>695</v>
-      </c>
-      <c r="F365" t="s">
-        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -15008,10 +14960,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>696</v>
+      </c>
+      <c r="F366" t="s">
         <v>697</v>
-      </c>
-      <c r="F366" t="s">
-        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -15037,10 +14989,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>698</v>
+      </c>
+      <c r="F367" t="s">
         <v>699</v>
-      </c>
-      <c r="F367" t="s">
-        <v>700</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -15066,10 +15018,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>700</v>
+      </c>
+      <c r="F368" t="s">
         <v>701</v>
-      </c>
-      <c r="F368" t="s">
-        <v>702</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -15095,10 +15047,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>702</v>
+      </c>
+      <c r="F369" t="s">
         <v>703</v>
-      </c>
-      <c r="F369" t="s">
-        <v>704</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -15124,10 +15076,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>704</v>
+      </c>
+      <c r="F370" t="s">
         <v>705</v>
-      </c>
-      <c r="F370" t="s">
-        <v>706</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -15153,10 +15105,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>706</v>
+      </c>
+      <c r="F371" t="s">
         <v>707</v>
-      </c>
-      <c r="F371" t="s">
-        <v>708</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -15182,10 +15134,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>708</v>
+      </c>
+      <c r="F372" t="s">
         <v>709</v>
-      </c>
-      <c r="F372" t="s">
-        <v>710</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -15211,10 +15163,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>710</v>
+      </c>
+      <c r="F373" t="s">
         <v>711</v>
-      </c>
-      <c r="F373" t="s">
-        <v>712</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15240,10 +15192,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>712</v>
+      </c>
+      <c r="F374" t="s">
         <v>713</v>
-      </c>
-      <c r="F374" t="s">
-        <v>714</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15269,10 +15221,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>714</v>
+      </c>
+      <c r="F375" t="s">
         <v>715</v>
-      </c>
-      <c r="F375" t="s">
-        <v>716</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15298,10 +15250,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>716</v>
+      </c>
+      <c r="F376" t="s">
         <v>717</v>
-      </c>
-      <c r="F376" t="s">
-        <v>718</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15327,10 +15279,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>718</v>
+      </c>
+      <c r="F377" t="s">
         <v>719</v>
-      </c>
-      <c r="F377" t="s">
-        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15356,10 +15308,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>720</v>
+      </c>
+      <c r="F378" t="s">
         <v>721</v>
-      </c>
-      <c r="F378" t="s">
-        <v>722</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15385,10 +15337,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>722</v>
+      </c>
+      <c r="F379" t="s">
         <v>723</v>
-      </c>
-      <c r="F379" t="s">
-        <v>724</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15414,10 +15366,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>724</v>
+      </c>
+      <c r="F380" t="s">
         <v>725</v>
-      </c>
-      <c r="F380" t="s">
-        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15443,10 +15395,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>726</v>
+      </c>
+      <c r="F381" t="s">
         <v>727</v>
-      </c>
-      <c r="F381" t="s">
-        <v>728</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15472,10 +15424,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>728</v>
+      </c>
+      <c r="F382" t="s">
         <v>729</v>
-      </c>
-      <c r="F382" t="s">
-        <v>730</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15501,10 +15453,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>730</v>
+      </c>
+      <c r="F383" t="s">
         <v>731</v>
-      </c>
-      <c r="F383" t="s">
-        <v>732</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15530,10 +15482,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>732</v>
+      </c>
+      <c r="F384" t="s">
         <v>733</v>
-      </c>
-      <c r="F384" t="s">
-        <v>734</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15559,10 +15511,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>734</v>
+      </c>
+      <c r="F385" t="s">
         <v>735</v>
-      </c>
-      <c r="F385" t="s">
-        <v>736</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15588,10 +15540,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>736</v>
+      </c>
+      <c r="F386" t="s">
         <v>737</v>
-      </c>
-      <c r="F386" t="s">
-        <v>738</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15617,10 +15569,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>738</v>
+      </c>
+      <c r="F387" t="s">
         <v>739</v>
-      </c>
-      <c r="F387" t="s">
-        <v>740</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15646,10 +15598,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>740</v>
+      </c>
+      <c r="F388" t="s">
         <v>741</v>
-      </c>
-      <c r="F388" t="s">
-        <v>742</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15675,10 +15627,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>742</v>
+      </c>
+      <c r="F389" t="s">
         <v>743</v>
-      </c>
-      <c r="F389" t="s">
-        <v>744</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15704,10 +15656,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>744</v>
+      </c>
+      <c r="F390" t="s">
         <v>745</v>
-      </c>
-      <c r="F390" t="s">
-        <v>746</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15733,10 +15685,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>746</v>
+      </c>
+      <c r="F391" t="s">
         <v>747</v>
-      </c>
-      <c r="F391" t="s">
-        <v>748</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15762,10 +15714,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>748</v>
+      </c>
+      <c r="F392" t="s">
         <v>749</v>
-      </c>
-      <c r="F392" t="s">
-        <v>750</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15791,10 +15743,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>750</v>
+      </c>
+      <c r="F393" t="s">
         <v>751</v>
-      </c>
-      <c r="F393" t="s">
-        <v>752</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15820,10 +15772,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>752</v>
+      </c>
+      <c r="F394" t="s">
         <v>753</v>
-      </c>
-      <c r="F394" t="s">
-        <v>754</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15849,10 +15801,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>754</v>
+      </c>
+      <c r="F395" t="s">
         <v>755</v>
-      </c>
-      <c r="F395" t="s">
-        <v>756</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15878,10 +15830,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>756</v>
+      </c>
+      <c r="F396" t="s">
         <v>757</v>
-      </c>
-      <c r="F396" t="s">
-        <v>758</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15907,10 +15859,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>758</v>
+      </c>
+      <c r="F397" t="s">
         <v>759</v>
-      </c>
-      <c r="F397" t="s">
-        <v>760</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15936,10 +15888,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>760</v>
+      </c>
+      <c r="F398" t="s">
         <v>761</v>
-      </c>
-      <c r="F398" t="s">
-        <v>762</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15965,10 +15917,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>762</v>
+      </c>
+      <c r="F399" t="s">
         <v>763</v>
-      </c>
-      <c r="F399" t="s">
-        <v>764</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15994,10 +15946,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>764</v>
+      </c>
+      <c r="F400" t="s">
         <v>765</v>
-      </c>
-      <c r="F400" t="s">
-        <v>766</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -16023,10 +15975,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>766</v>
+      </c>
+      <c r="F401" t="s">
         <v>767</v>
-      </c>
-      <c r="F401" t="s">
-        <v>768</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -16052,10 +16004,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>768</v>
+      </c>
+      <c r="F402" t="s">
         <v>769</v>
-      </c>
-      <c r="F402" t="s">
-        <v>770</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -16081,10 +16033,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>770</v>
+      </c>
+      <c r="F403" t="s">
         <v>771</v>
-      </c>
-      <c r="F403" t="s">
-        <v>772</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -16110,10 +16062,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>772</v>
+      </c>
+      <c r="F404" t="s">
         <v>773</v>
-      </c>
-      <c r="F404" t="s">
-        <v>774</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -16139,10 +16091,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>774</v>
+      </c>
+      <c r="F405" t="s">
         <v>775</v>
-      </c>
-      <c r="F405" t="s">
-        <v>776</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16168,10 +16120,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>776</v>
+      </c>
+      <c r="F406" t="s">
         <v>777</v>
-      </c>
-      <c r="F406" t="s">
-        <v>778</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16197,10 +16149,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>778</v>
+      </c>
+      <c r="F407" t="s">
         <v>779</v>
-      </c>
-      <c r="F407" t="s">
-        <v>780</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16226,10 +16178,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>780</v>
+      </c>
+      <c r="F408" t="s">
         <v>781</v>
-      </c>
-      <c r="F408" t="s">
-        <v>782</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16255,10 +16207,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>782</v>
+      </c>
+      <c r="F409" t="s">
         <v>783</v>
-      </c>
-      <c r="F409" t="s">
-        <v>784</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16284,10 +16236,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>784</v>
+      </c>
+      <c r="F410" t="s">
         <v>785</v>
-      </c>
-      <c r="F410" t="s">
-        <v>786</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16313,10 +16265,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>786</v>
+      </c>
+      <c r="F411" t="s">
         <v>787</v>
-      </c>
-      <c r="F411" t="s">
-        <v>788</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16342,10 +16294,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>788</v>
+      </c>
+      <c r="F412" t="s">
         <v>789</v>
-      </c>
-      <c r="F412" t="s">
-        <v>790</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16371,10 +16323,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>790</v>
+      </c>
+      <c r="F413" t="s">
         <v>791</v>
-      </c>
-      <c r="F413" t="s">
-        <v>792</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16400,10 +16352,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>792</v>
+      </c>
+      <c r="F414" t="s">
         <v>793</v>
-      </c>
-      <c r="F414" t="s">
-        <v>794</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16429,10 +16381,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>794</v>
+      </c>
+      <c r="F415" t="s">
         <v>795</v>
-      </c>
-      <c r="F415" t="s">
-        <v>796</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16458,10 +16410,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>796</v>
+      </c>
+      <c r="F416" t="s">
         <v>797</v>
-      </c>
-      <c r="F416" t="s">
-        <v>798</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -16487,10 +16439,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>798</v>
+      </c>
+      <c r="F417" t="s">
         <v>799</v>
-      </c>
-      <c r="F417" t="s">
-        <v>800</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16516,10 +16468,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>800</v>
+      </c>
+      <c r="F418" t="s">
         <v>801</v>
-      </c>
-      <c r="F418" t="s">
-        <v>802</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16545,10 +16497,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>802</v>
+      </c>
+      <c r="F419" t="s">
         <v>803</v>
-      </c>
-      <c r="F419" t="s">
-        <v>804</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16574,10 +16526,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>804</v>
+      </c>
+      <c r="F420" t="s">
         <v>805</v>
-      </c>
-      <c r="F420" t="s">
-        <v>806</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16603,10 +16555,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>806</v>
+      </c>
+      <c r="F421" t="s">
         <v>807</v>
-      </c>
-      <c r="F421" t="s">
-        <v>808</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16632,10 +16584,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>808</v>
+      </c>
+      <c r="F422" t="s">
         <v>809</v>
-      </c>
-      <c r="F422" t="s">
-        <v>810</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -16661,10 +16613,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>810</v>
+      </c>
+      <c r="F423" t="s">
         <v>811</v>
-      </c>
-      <c r="F423" t="s">
-        <v>812</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16690,10 +16642,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>812</v>
+      </c>
+      <c r="F424" t="s">
         <v>813</v>
-      </c>
-      <c r="F424" t="s">
-        <v>814</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -16719,10 +16671,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>814</v>
+      </c>
+      <c r="F425" t="s">
         <v>815</v>
-      </c>
-      <c r="F425" t="s">
-        <v>816</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16835,10 +16787,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>816</v>
+      </c>
+      <c r="F429" t="s">
         <v>817</v>
-      </c>
-      <c r="F429" t="s">
-        <v>818</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16864,10 +16816,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>818</v>
+      </c>
+      <c r="F430" t="s">
         <v>819</v>
-      </c>
-      <c r="F430" t="s">
-        <v>820</v>
       </c>
       <c r="G430" t="n">
         <v>4</v>
@@ -16893,10 +16845,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>820</v>
+      </c>
+      <c r="F431" t="s">
         <v>821</v>
-      </c>
-      <c r="F431" t="s">
-        <v>822</v>
       </c>
       <c r="G431" t="n">
         <v>20</v>
@@ -16922,10 +16874,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>822</v>
+      </c>
+      <c r="F432" t="s">
         <v>823</v>
-      </c>
-      <c r="F432" t="s">
-        <v>824</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16951,10 +16903,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>824</v>
+      </c>
+      <c r="F433" t="s">
         <v>825</v>
-      </c>
-      <c r="F433" t="s">
-        <v>826</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16980,10 +16932,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>826</v>
+      </c>
+      <c r="F434" t="s">
         <v>827</v>
-      </c>
-      <c r="F434" t="s">
-        <v>828</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -17009,10 +16961,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>828</v>
+      </c>
+      <c r="F435" t="s">
         <v>829</v>
-      </c>
-      <c r="F435" t="s">
-        <v>830</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -17038,10 +16990,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F436" t="s">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="G436" t="n">
         <v>53</v>
@@ -17067,10 +17019,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F437" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -17096,10 +17048,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F438" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -17125,10 +17077,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F439" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17154,10 +17106,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F440" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -17183,10 +17135,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F441" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -17212,10 +17164,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F442" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17241,10 +17193,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F443" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G443" t="n">
         <v>3</v>
@@ -17299,10 +17251,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F445" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17328,10 +17280,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F446" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17357,10 +17309,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F447" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17386,10 +17338,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F448" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17415,10 +17367,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F449" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17444,10 +17396,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F450" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17473,10 +17425,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F451" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17502,10 +17454,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F452" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17531,10 +17483,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F453" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17560,10 +17512,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F454" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17589,10 +17541,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F455" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17618,10 +17570,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F456" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17647,10 +17599,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F457" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17676,10 +17628,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F458" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17705,10 +17657,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F459" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17734,10 +17686,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F460" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17763,10 +17715,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F461" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17792,10 +17744,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F462" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G462" t="n">
         <v>11</v>
@@ -17821,10 +17773,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F463" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17850,10 +17802,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F464" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17879,10 +17831,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F465" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17908,10 +17860,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F466" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -17966,10 +17918,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F468" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17995,10 +17947,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F469" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -18024,13 +17976,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F470" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -18053,10 +18005,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F471" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18082,10 +18034,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F472" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -18111,10 +18063,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F473" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18140,10 +18092,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F474" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18169,10 +18121,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F475" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18198,10 +18150,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F476" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18227,10 +18179,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F477" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G477" t="n">
         <v>2</v>
@@ -18256,10 +18208,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F478" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18285,10 +18237,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F479" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18314,10 +18266,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F480" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18343,10 +18295,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F481" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G481" t="n">
         <v>2</v>
@@ -18372,10 +18324,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F482" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18401,10 +18353,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F483" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18430,10 +18382,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F484" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18459,10 +18411,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F485" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18488,10 +18440,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F486" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18517,10 +18469,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F487" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18546,10 +18498,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G488" t="n">
         <v>3</v>
@@ -18575,10 +18527,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F489" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18604,10 +18556,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F490" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18633,10 +18585,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F491" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18662,10 +18614,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F492" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18691,10 +18643,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F493" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G493" t="n">
         <v>3</v>
@@ -18720,10 +18672,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F494" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18749,10 +18701,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F495" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18778,10 +18730,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F496" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18807,10 +18759,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F497" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18836,10 +18788,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F498" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18865,10 +18817,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F499" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18894,10 +18846,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F500" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18923,10 +18875,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F501" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18952,10 +18904,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F502" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18981,10 +18933,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F503" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -19010,10 +18962,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F504" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G504" t="n">
         <v>3</v>
@@ -19039,10 +18991,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F505" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -19068,10 +19020,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F506" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -19097,10 +19049,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F507" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19126,10 +19078,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F508" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19155,10 +19107,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F509" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19184,10 +19136,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F510" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19213,10 +19165,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F511" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19242,10 +19194,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F512" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19271,10 +19223,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F513" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19300,10 +19252,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F514" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -19329,10 +19281,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F515" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19358,10 +19310,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F516" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G516" t="n">
         <v>2</v>
@@ -19387,10 +19339,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F517" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19416,10 +19368,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F518" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19445,10 +19397,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F519" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19474,10 +19426,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F520" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19503,10 +19455,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F521" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19532,10 +19484,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F522" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19561,10 +19513,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F523" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19590,10 +19542,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F524" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -19619,10 +19571,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F525" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19648,10 +19600,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F526" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19677,10 +19629,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F527" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19706,10 +19658,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F528" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19735,10 +19687,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F529" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G529" t="n">
         <v>3</v>
@@ -19764,10 +19716,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F530" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19793,10 +19745,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F531" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19822,10 +19774,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F532" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19851,10 +19803,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F533" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19880,10 +19832,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F534" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G534" t="n">
         <v>4</v>
@@ -19909,10 +19861,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F535" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19938,10 +19890,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F536" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19967,10 +19919,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F537" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G537" t="n">
         <v>3</v>
@@ -19996,10 +19948,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F538" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -20025,10 +19977,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F539" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G539" t="n">
         <v>2</v>
@@ -20054,10 +20006,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F540" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -20083,10 +20035,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F541" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -20112,10 +20064,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F542" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G542" t="n">
         <v>3</v>
@@ -20141,10 +20093,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F543" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20170,10 +20122,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F544" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -20199,10 +20151,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F545" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20228,10 +20180,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F546" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G546" t="n">
         <v>2</v>
@@ -20257,10 +20209,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F547" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20286,10 +20238,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F548" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20315,10 +20267,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F549" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G549" t="n">
         <v>2</v>
@@ -20344,10 +20296,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F550" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20373,10 +20325,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F551" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20402,10 +20354,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F552" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -20431,10 +20383,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F553" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20460,10 +20412,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F554" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G554" t="n">
         <v>2</v>
@@ -20489,10 +20441,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F555" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20518,10 +20470,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F556" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20547,10 +20499,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F557" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20576,10 +20528,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F558" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20605,10 +20557,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F559" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20634,10 +20586,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F560" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20663,10 +20615,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F561" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20692,10 +20644,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F562" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20721,10 +20673,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F563" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20750,10 +20702,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F564" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20779,10 +20731,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F565" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20808,10 +20760,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F566" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20837,10 +20789,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F567" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20866,10 +20818,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F568" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20895,10 +20847,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F569" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20924,10 +20876,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F570" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20953,10 +20905,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F571" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20982,10 +20934,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F572" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -21011,10 +20963,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F573" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -21040,10 +20992,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F574" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -21069,10 +21021,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F575" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -21098,10 +21050,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F576" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -21127,10 +21079,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F577" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -21156,10 +21108,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F578" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -21185,10 +21137,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F579" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21214,10 +21166,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F580" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -21243,10 +21195,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F581" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21272,10 +21224,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F582" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21301,10 +21253,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F583" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21330,10 +21282,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F584" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G584" t="n">
         <v>2</v>
@@ -21359,10 +21311,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F585" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21388,10 +21340,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F586" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G586" t="n">
         <v>3</v>
@@ -21417,10 +21369,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F587" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21446,10 +21398,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F588" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21475,10 +21427,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F589" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21504,10 +21456,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F590" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21533,10 +21485,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F591" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21562,10 +21514,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F592" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21591,10 +21543,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F593" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21620,10 +21572,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F594" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21649,10 +21601,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F595" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21678,10 +21630,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F596" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21707,10 +21659,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F597" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21736,10 +21688,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F598" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21765,10 +21717,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F599" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21794,10 +21746,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F600" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G600" t="n">
         <v>3</v>
@@ -21823,10 +21775,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F601" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21852,10 +21804,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F602" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21881,10 +21833,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F603" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21910,10 +21862,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F604" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21939,10 +21891,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F605" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21968,10 +21920,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F606" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21997,10 +21949,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F607" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -22026,10 +21978,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F608" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -22055,10 +22007,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F609" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -22084,10 +22036,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F610" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -22113,10 +22065,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F611" t="s">
-        <v>1176</v>
+        <v>884</v>
       </c>
       <c r="G611" t="n">
         <v>3</v>
@@ -22171,10 +22123,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F613" t="s">
-        <v>1178</v>
+        <v>66</v>
       </c>
       <c r="G613" t="n">
         <v>4</v>
@@ -22200,10 +22152,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F614" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G614" t="n">
         <v>3</v>
@@ -22229,10 +22181,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F615" t="s">
-        <v>1180</v>
+        <v>940</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22258,10 +22210,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F616" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22287,10 +22239,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="F617" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="G617" t="n">
         <v>170</v>
@@ -22316,10 +22268,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="F618" t="s">
-        <v>1184</v>
+        <v>64</v>
       </c>
       <c r="G618" t="n">
         <v>5</v>
@@ -22345,10 +22297,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F619" t="s">
-        <v>1186</v>
+        <v>124</v>
       </c>
       <c r="G619" t="n">
         <v>14</v>
@@ -22374,10 +22326,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F620" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -22403,10 +22355,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F621" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22432,10 +22384,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F622" t="s">
-        <v>1188</v>
+        <v>912</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22461,10 +22413,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="F623" t="s">
-        <v>1190</v>
+        <v>38</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -22519,10 +22471,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="F625" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22548,10 +22500,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="F626" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -22577,10 +22529,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="F627" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22606,10 +22558,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="F628" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22635,10 +22587,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="F629" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="G629" t="n">
         <v>2</v>
@@ -22664,10 +22616,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="F630" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22693,10 +22645,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="F631" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="G631" t="n">
         <v>2</v>
@@ -22722,10 +22674,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="F632" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22751,10 +22703,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="F633" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22809,10 +22761,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F635" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22838,10 +22790,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="F636" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22867,10 +22819,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F637" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22896,10 +22848,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="F638" t="s">
-        <v>1212</v>
+        <v>1120</v>
       </c>
       <c r="G638" t="n">
         <v>2</v>
@@ -22925,10 +22877,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="F639" t="s">
-        <v>1214</v>
+        <v>1124</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22954,10 +22906,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="F640" t="s">
-        <v>1216</v>
+        <v>908</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22983,10 +22935,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="F641" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -23012,10 +22964,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="F642" t="s">
-        <v>1220</v>
+        <v>1006</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -23041,10 +22993,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F643" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -23070,10 +23022,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F644" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -23099,10 +23051,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F645" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -23128,10 +23080,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F646" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23157,10 +23109,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="F647" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23186,10 +23138,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F648" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23215,10 +23167,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F649" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23244,10 +23196,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F650" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23273,10 +23225,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="F651" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23302,10 +23254,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F652" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23331,10 +23283,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="F653" t="s">
-        <v>1226</v>
+        <v>992</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23360,10 +23312,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="F654" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23389,10 +23341,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F655" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23447,10 +23399,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="F657" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23476,10 +23428,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F658" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23505,10 +23457,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="F659" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23534,10 +23486,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="F660" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23563,10 +23515,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="F661" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23592,10 +23544,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="F662" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23621,10 +23573,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="F663" t="s">
-        <v>1240</v>
+        <v>1193</v>
       </c>
       <c r="G663" t="n">
         <v>2</v>
@@ -23650,10 +23602,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="F664" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="G664" t="n">
         <v>2</v>
@@ -23679,10 +23631,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="F665" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23708,10 +23660,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="F666" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23737,10 +23689,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="F667" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23766,10 +23718,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="F668" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23795,10 +23747,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="F669" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23824,10 +23776,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="F670" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23853,10 +23805,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="F671" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23882,10 +23834,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="F672" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23911,10 +23863,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="F673" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23940,10 +23892,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="F674" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23969,10 +23921,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="F675" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23998,10 +23950,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="F676" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -24027,10 +23979,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="F677" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -24056,10 +24008,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="F678" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -24085,10 +24037,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="F679" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -24114,10 +24066,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="F680" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -24143,10 +24095,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="F681" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -24172,10 +24124,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="F682" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -24201,10 +24153,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="F683" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -24230,10 +24182,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="F684" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24259,10 +24211,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="F685" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24288,10 +24240,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="F686" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24317,10 +24269,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="F687" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24346,10 +24298,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="F688" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24375,10 +24327,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="F689" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24404,10 +24356,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="F690" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24433,10 +24385,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="F691" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24462,10 +24414,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="F692" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24491,10 +24443,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="F693" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24520,10 +24472,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="F694" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24549,10 +24501,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="F695" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -24578,10 +24530,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="F696" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -24607,10 +24559,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="F697" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -24636,10 +24588,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="F698" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -24665,10 +24617,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="F699" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -24694,10 +24646,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="F700" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -24723,10 +24675,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="F701" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -24752,10 +24704,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="F702" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -24781,10 +24733,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F703" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -24810,10 +24762,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="F704" t="s">
-        <v>1316</v>
+        <v>36</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -24839,10 +24791,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="F705" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -24868,10 +24820,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="F706" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -24897,10 +24849,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="F707" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -24926,10 +24878,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="F708" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -24955,10 +24907,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="F709" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -24984,10 +24936,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="F710" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -25013,10 +24965,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="F711" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -25042,10 +24994,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="F712" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -25071,10 +25023,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="F713" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="G713" t="n">
         <v>3</v>
@@ -25100,10 +25052,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="F714" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -25129,10 +25081,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="F715" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -25158,10 +25110,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="F716" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -25187,10 +25139,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="F717" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -25216,10 +25168,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="F718" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25245,10 +25197,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="F719" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
